--- a/medicine/Psychotrope/Bouilleur_de_cru/Bouilleur_de_cru.xlsx
+++ b/medicine/Psychotrope/Bouilleur_de_cru/Bouilleur_de_cru.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bouilleur de cru est, en France, une personne habilitée à produire ses propres eaux-de-vie. Il est un récoltant de fruits qui peut faire distiller ses fruits. Certains peuvent encore se prévaloir du privilège institué dans les années 1950. Ils peuvent ainsi distiller en étant exonérés de droits de distillation dans la limite de 10 litres d'alcool pur (soit 20 litres à 50°).
 Ce statut est en voie de disparition du fait d'un contingentement déterminé dans les années 1950.
@@ -514,7 +526,9 @@
           <t>Distillation des eaux-de-vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La préparation des fruits, au meilleur de leur maturité, sont passés au fouloir et mis en fûts. Le pH du jus de fruit est naturellement aux alentours de 3,2.
 La fermentation commence au bout de quelques jours. Ce sont les levures qui se trouvent sur la peau des fruits qui vont transformer leur sucre en éthanol. La fermentation est dite anaérobie (sans oxygène). Elle dure quelques semaines (en fonction de la température et de la quantité de sucre et de levures).
@@ -549,7 +563,9 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les personnes ayant le « privilège de bouilleur de cru » ont une exonération de taxe sur les mille premiers degrés d'alcool produits (1 000° d'alcool soit l'équivalent de vingt litres d'alcool à 50°). Les degrés supplémentaires font l'objet d'une taxe (17,410 4 € par litre pur d’alcool depuis le 1er janvier 2018).
 En France, toute personne propriétaire d'une parcelle ayant la dénomination de verger ou de vigne sur le registre du cadastre peut distiller les produits issus de cette parcelle (fruits, cidre, vin, marc). La distillation est effectuée dans un atelier public ou privé après avoir effectué une déclaration au service de la Direction générale des Douanes et Droits indirects.
@@ -583,13 +599,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le privilège de bouilleur de cru remonte à Napoléon lorsqu'il accorda un privilège d'exonération de taxes pour la distillation de 10 litres d'alcool pur ou pour 20 litres d'alcool à 50° pour ses grognards. Ce privilège fut héréditaire jusqu'en 1960, où, pour tenter de limiter le fléau de l'alcoolisme dans les campagnes mais aussi sous la pression des lobbies de grands importateurs d'alcool fort ou producteurs français, le législateur en interdit la transmission entre générations ; seul le conjoint survivant pouvait en user jusqu'à sa propre mort, mais plus aucun descendant. Mais le sujet donna lieu à l'Assemblée nationale à des débats houleux [1],[2]. On comptait alors environ trois millions de bouilleurs de cru, et l'exemption représentait un manque à gagner d'environ 20 milliards de francs[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le privilège de bouilleur de cru remonte à Napoléon lorsqu'il accorda un privilège d'exonération de taxes pour la distillation de 10 litres d'alcool pur ou pour 20 litres d'alcool à 50° pour ses grognards. Ce privilège fut héréditaire jusqu'en 1960, où, pour tenter de limiter le fléau de l'alcoolisme dans les campagnes mais aussi sous la pression des lobbies de grands importateurs d'alcool fort ou producteurs français, le législateur en interdit la transmission entre générations ; seul le conjoint survivant pouvait en user jusqu'à sa propre mort, mais plus aucun descendant. Mais le sujet donna lieu à l'Assemblée nationale à des débats houleux ,. On comptait alors environ trois millions de bouilleurs de cru, et l'exemption représentait un manque à gagner d'environ 20 milliards de francs.
 Dès lors, les bouilleurs de cru non titulaires du privilège pouvaient faire fabriquer leur alcool par le distillateur ambulant mais devaient verser une taxe fiscale au Trésor public via l'administration des douanes à partir de 1993.
-En 2002, une loi de finance indique que la franchise accordée aux bouilleurs de cru encore titulaires du privilège est supprimée ; cependant une période de cinq ans prolonge jusqu'au 31 décembre 2007 l'ancien dispositif [4]. À partir de la campagne de distillation 2008, les anciens titulaires du privilège peuvent encore bénéficier d'une remise de 50 % sur la taxe pour les 10 premiers litres d'alcool pur (article 317 du code général des impôts).
+En 2002, une loi de finance indique que la franchise accordée aux bouilleurs de cru encore titulaires du privilège est supprimée ; cependant une période de cinq ans prolonge jusqu'au 31 décembre 2007 l'ancien dispositif . À partir de la campagne de distillation 2008, les anciens titulaires du privilège peuvent encore bénéficier d'une remise de 50 % sur la taxe pour les 10 premiers litres d'alcool pur (article 317 du code général des impôts).
 Un nouvel amendement voté au Sénat proroge le droit sur les 10 premiers litres jusqu'au 31 décembre 2010. La Loi 2011-1977 du 28 décembre 2011 « proroge » le bénéfice des 1 000 degrés jusqu'au décès du titulaire (ou de son conjoint).
-En 2021, on estime qu'il reste 600 à 700 bouilleurs de cru en activité, un nombre diminué de moitié en dix ans[5],[6].
+En 2021, on estime qu'il reste 600 à 700 bouilleurs de cru en activité, un nombre diminué de moitié en dix ans,.
 </t>
         </is>
       </c>
